--- a/CounterWeb/counter_30.03.2023 (3).xlsx
+++ b/CounterWeb/counter_30.03.2023 (3).xlsx
@@ -19,10 +19,10 @@
     <t>Завдання №1 (15 балів)</t>
   </si>
   <si>
-    <t>Завдання №2 (25 балів)</t>
+    <t>Завдання №2 (19 балів)</t>
   </si>
   <si>
-    <t>Завдання №3 (20 балів)</t>
+    <t>Завдання №3 (15 балів)</t>
   </si>
   <si>
     <t>Петренко Петро</t>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1038,13 +1038,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/CounterWeb/counter_30.03.2023 (3).xlsx
+++ b/CounterWeb/counter_30.03.2023 (3).xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Завдання №1 (15 балів)</t>
+    <t>Завдання №1 (20 балів)</t>
   </si>
   <si>
-    <t>Завдання №2 (19 балів)</t>
+    <t>Завдання №2 (20 балів)</t>
   </si>
   <si>
-    <t>Завдання №3 (15 балів)</t>
+    <t>Завдання №3 (10 балів)</t>
   </si>
   <si>
-    <t>Петренко Петро</t>
+    <t>Петро петренок</t>
   </si>
   <si>
     <t>Михайлченко Михайло</t>
   </si>
   <si>
-    <t>Ольгівна Ольгу</t>
+    <t>Оля Ольгівна</t>
   </si>
   <si>
     <t>Марічкенко Марічка</t>
@@ -1013,7 +1013,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1038,13 +1038,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1052,10 +1052,10 @@
         <v>4</v>
       </c>
       <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
         <v>11</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
       </c>
       <c r="D3">
         <v>0</v>
